--- a/ecosysem/kinetics/Excels/qs_FFAM.xlsx
+++ b/ecosysem/kinetics/Excels/qs_FFAM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\kinetics\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F8FB2-DC63-46FD-A7AF-18ABB0BEC1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E0409-5D03-4692-8CDB-AAE6388E8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <author>tc={D9CDC371-DAFC-4097-975F-2CEAD667DDE4}</author>
     <author>tc={EEDC5410-BDA8-49DF-AD9E-1EA784E9AD47}</author>
     <author>tc={ABF0A1D2-5102-4B48-9178-81D566701191}</author>
+    <author>tc={F18DBA7A-A16B-4BCF-9561-6DB352758D2E}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B64F00DB-B5A2-4EB5-91C7-179351693E09}">
@@ -76,12 +77,20 @@
     Units: [mol/L]</t>
       </text>
     </comment>
+    <comment ref="H1" authorId="4" shapeId="0" xr:uid="{F18DBA7A-A16B-4BCF-9561-6DB352758D2E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Units: [mol/L]</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>REF</t>
   </si>
@@ -403,12 +412,28 @@
   <si>
     <t>Texp</t>
   </si>
+  <si>
+    <t>Mycobacterium smegmatis</t>
+  </si>
+  <si>
+    <t>Cordero2019</t>
+  </si>
+  <si>
+    <t>COOB</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,12 +496,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +537,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,15 +838,18 @@
   <threadedComment ref="G1" dT="2024-12-13T12:09:23.16" personId="{3E7A2E02-F1BD-4892-AB13-EBE9BEFA4653}" id="{ABF0A1D2-5102-4B48-9178-81D566701191}">
     <text>Units: [mol/L]</text>
   </threadedComment>
+  <threadedComment ref="H1" dT="2025-01-29T13:38:43.13" personId="{3E7A2E02-F1BD-4892-AB13-EBE9BEFA4653}" id="{F18DBA7A-A16B-4BCF-9561-6DB352758D2E}">
+    <text>Units: [mol/L]</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +860,7 @@
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -857,8 +882,11 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -880,8 +908,10 @@
         <f>48.54*10^(-9)</f>
         <v>4.8540000000000003E-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -903,8 +933,10 @@
         <f>402.8*10^(-9)</f>
         <v>4.0280000000000003E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +958,10 @@
         <f>4910*10^(-9)</f>
         <v>4.9100000000000004E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -949,8 +983,10 @@
         <f>8800*10^(-9)</f>
         <v>8.8000000000000004E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -972,8 +1008,10 @@
         <f>110*10^(-9)</f>
         <v>1.1000000000000001E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -996,8 +1034,11 @@
         <f>113*10^(-9)</f>
         <v>1.1300000000000001E-7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1049,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="8">
-        <f>25+273.15</f>
+        <f t="shared" ref="D8:D19" si="0">25+273.15</f>
         <v>298.14999999999998</v>
       </c>
       <c r="E8" s="8">
@@ -1020,8 +1061,11 @@
         <f>62.42*10^(-9)</f>
         <v>6.2419999999999999E-8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E9" s="8">
@@ -1044,8 +1088,11 @@
         <f>46.81*10^(-9)</f>
         <v>4.6810000000000007E-8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1103,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E10" s="8">
@@ -1068,8 +1115,11 @@
         <f>31.21*10^(-9)</f>
         <v>3.121E-8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1130,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E11" s="8">
@@ -1092,8 +1142,11 @@
         <f>31.21*10^(-9)</f>
         <v>3.121E-8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E12" s="8">
@@ -1116,8 +1169,11 @@
         <f>43*10^(-9)</f>
         <v>4.3000000000000001E-8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1184,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E13" s="8">
@@ -1140,8 +1196,11 @@
         <f>39*10^(-9)</f>
         <v>3.9000000000000005E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E14" s="8">
@@ -1164,8 +1223,11 @@
         <f>100*10^(-9)</f>
         <v>1.0000000000000001E-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E15" s="8">
@@ -1188,8 +1250,11 @@
         <f>135*10^(-9)</f>
         <v>1.35E-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E16" s="8">
@@ -1212,8 +1277,11 @@
         <f>374*10^(-9)</f>
         <v>3.7400000000000004E-7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E17" s="8">
@@ -1236,8 +1304,11 @@
         <f>361*10^(-9)</f>
         <v>3.6100000000000002E-7</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="7"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1248,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E18" s="8">
@@ -1260,8 +1331,11 @@
         <f>112*10^(-9)</f>
         <v>1.1200000000000001E-7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="8">
-        <f>25+273.15</f>
+        <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
       <c r="E19" s="8">
@@ -1284,6 +1358,34 @@
         <f>47*10^(-9)</f>
         <v>4.7000000000000004E-8</v>
       </c>
+      <c r="H19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8">
+        <f>37+273.15</f>
+        <v>310.14999999999998</v>
+      </c>
+      <c r="E20" s="7">
+        <f>3.13*(1/10^9)*(1/10^15)*(122/1)*(60/1)</f>
+        <v>2.2911600000000001E-20</v>
+      </c>
+      <c r="H20" s="9">
+        <f>323*10^(-9)</f>
+        <v>3.2300000000000002E-7</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
